--- a/4. 회의/프로젝트_회의내용.xlsx
+++ b/4. 회의/프로젝트_회의내용.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,50 @@
   <si>
     <t>회원정보 수정 페이지는 따로 없고 내정보를 들어가면 수정 버튼을 누를 시 수정 가능
 (수정시에는 비밀번호를 입력해야 수정가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatsController.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatsVO.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatsService.java(인터페이스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatsServiceImpl.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatsMapper.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marriage.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatsMapper.java(인터페이스)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -565,6 +609,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -580,15 +654,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -598,18 +675,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,24 +683,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,10 +988,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:F73"/>
+  <dimension ref="A2:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -957,24 +1004,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="33"/>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="33"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
@@ -994,10 +1041,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="32" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1009,8 +1056,8 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1020,8 +1067,8 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,9 +1078,9 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1042,17 +1089,17 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="11"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1060,7 +1107,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="11"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1073,11 +1120,11 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1086,19 +1133,19 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="12"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1107,11 +1154,11 @@
       <c r="E15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="31"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="11"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1121,8 +1168,8 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="11"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1132,9 +1179,9 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="11"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1143,16 +1190,16 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="11"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="11"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1165,11 +1212,11 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="11"/>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1178,573 +1225,623 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="11"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="12"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="31"/>
+      <c r="E24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="19"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="19"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="19"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="19"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="1"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="19"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="20"/>
-      <c r="C30" s="7" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B30" s="30"/>
+      <c r="C30" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="E30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="30"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="30"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="30"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="31"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C35" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="31"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B32" s="11"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="1" t="s">
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="21"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="11"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="1" t="s">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="21"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B34" s="11"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15" t="s">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B38" s="21"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B35" s="11"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="1" t="s">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="21"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B36" s="11"/>
-      <c r="C36" s="1" t="s">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B40" s="21"/>
+      <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B37" s="11"/>
-      <c r="C37" s="14" t="s">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B41" s="21"/>
+      <c r="C41" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D41" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="11"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="1" t="s">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B42" s="21"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B39" s="11"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="1" t="s">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B43" s="21"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="12"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="5" t="s">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="22"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B41" s="10" t="s">
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C45" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="31"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B42" s="11"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="1" t="s">
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B46" s="21"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B43" s="11"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="1" t="s">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="21"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B44" s="11"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15" t="s">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B48" s="21"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B45" s="11"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="1" t="s">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="21"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B46" s="11"/>
-      <c r="C46" s="1" t="s">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="21"/>
+      <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B47" s="11"/>
-      <c r="C47" s="14" t="s">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B51" s="21"/>
+      <c r="C51" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D51" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B48" s="11"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="1" t="s">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B52" s="21"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B49" s="11"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="1" t="s">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B53" s="21"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="12"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="5" t="s">
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="22"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B51" s="18" t="s">
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B55" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C55" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="31"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B52" s="19"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="1" t="s">
+      <c r="E55" s="6"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B56" s="30"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B53" s="19"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B54" s="19"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B55" s="19"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B56" s="19"/>
-      <c r="C56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="20"/>
-      <c r="C57" s="7" t="s">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B57" s="30"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B58" s="30"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B59" s="30"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B60" s="30"/>
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="31"/>
+      <c r="C61" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="10" t="s">
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C62" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D62" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F58" s="28"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B59" s="11"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="1" t="s">
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B63" s="21"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F59" s="30"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B60" s="11"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="1" t="s">
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B64" s="21"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F60" s="30"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B61" s="11"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="15" t="s">
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B65" s="21"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F61" s="30"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B62" s="11"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="1" t="s">
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B66" s="21"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F62" s="30"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B63" s="11"/>
-      <c r="C63" s="1" t="s">
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B67" s="21"/>
+      <c r="C67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F63" s="30"/>
-    </row>
-    <row r="64" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="12"/>
-      <c r="C64" s="7" t="s">
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="22"/>
+      <c r="C68" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D68" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F64" s="32" t="s">
+      <c r="F68" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B65" s="10" t="s">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B69" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C69" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F65" s="31"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B66" s="11"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="1" t="s">
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B70" s="21"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B67" s="11"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="1" t="s">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B71" s="21"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B68" s="11"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15" t="s">
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B72" s="21"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B69" s="11"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="1" t="s">
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B73" s="21"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B70" s="11"/>
-      <c r="C70" s="1" t="s">
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B74" s="21"/>
+      <c r="C74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B71" s="11"/>
-      <c r="C71" s="14" t="s">
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B75" s="21"/>
+      <c r="C75" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D75" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F71" s="29" t="s">
+      <c r="F75" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="12"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="5" t="s">
+    <row r="76" spans="2:6" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="22"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F72" s="32" t="s">
+      <c r="F76" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B73" s="8" t="s">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B77" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="31"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="38">
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="B15:B23"/>
@@ -1757,30 +1854,32 @@
     <mergeCell ref="B6:B14"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B24:B34"/>
     <mergeCell ref="C24:C28"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B31:B40"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="B65:B72"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="B35:B44"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="D65:D66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4. 회의/프로젝트_회의내용.xlsx
+++ b/4. 회의/프로젝트_회의내용.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,10 +259,6 @@
   </si>
   <si>
     <t>/news/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/notice/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -373,19 +369,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sex.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marriage.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>age.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>StatsMapper.java(인터페이스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marriage_sex.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,6 +626,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -648,18 +650,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,15 +679,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,10 +984,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:F77"/>
+  <dimension ref="A2:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1005,23 +1001,23 @@
   <sheetData>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="15"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
@@ -1037,14 +1033,14 @@
         <v>5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1056,8 +1052,8 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1063,8 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1078,9 +1074,9 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1089,8 +1085,8 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="25"/>
       <c r="E10" s="1" t="s">
         <v>16</v>
@@ -1098,8 +1094,8 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="21"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1103,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="21"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1120,11 +1116,11 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="21"/>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1133,19 +1129,19 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="22"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1157,8 +1153,8 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="21"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1168,8 +1164,8 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="21"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1179,9 +1175,9 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="21"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="17" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1190,8 +1186,8 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="21"/>
-      <c r="C19" s="24"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="25"/>
       <c r="E19" s="1" t="s">
         <v>36</v>
@@ -1199,7 +1195,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="21"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1212,95 +1208,95 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="21"/>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="21"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="22"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="30"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="30"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="30"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="17" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="30"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="25"/>
       <c r="E28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="30"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
@@ -1308,578 +1304,558 @@
         <v>19</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B30" s="33"/>
+      <c r="C30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B30" s="30"/>
-      <c r="C30" s="17" t="s">
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B31" s="33"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="33"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="34"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35" s="23"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="23"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="23"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B38" s="23"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="23"/>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B40" s="23"/>
+      <c r="C40" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B31" s="30"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B32" s="30"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="30"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="31"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B35" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="23" t="s">
+      <c r="D40" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B41" s="23"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B42" s="23"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="24"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B36" s="21"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="1" t="s">
+      <c r="E44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="23"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B37" s="21"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B46" s="23"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="21"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="17" t="s">
+      <c r="E46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="23"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B39" s="21"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B40" s="21"/>
-      <c r="C40" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B48" s="23"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="23"/>
+      <c r="C49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B41" s="21"/>
-      <c r="C41" s="24" t="s">
+      <c r="E49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="23"/>
+      <c r="C50" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="D50" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B42" s="21"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="1" t="s">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B51" s="23"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B43" s="21"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="1" t="s">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B52" s="23"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="22"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="5" t="s">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="24"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B45" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="23" t="s">
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B54" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B46" s="21"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="1" t="s">
+      <c r="E54" s="6"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B55" s="33"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B47" s="21"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="1" t="s">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B56" s="33"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B48" s="21"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B49" s="21"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B50" s="21"/>
-      <c r="C50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B51" s="21"/>
-      <c r="C51" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B52" s="21"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B53" s="21"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="22"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B55" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B56" s="30"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B57" s="30"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="1" t="s">
-        <v>10</v>
+      <c r="B57" s="33"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B58" s="30"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="B58" s="33"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B59" s="30"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="25"/>
+    <row r="59" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="33"/>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B60" s="30"/>
-      <c r="C60" s="1" t="s">
+    <row r="60" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B61" s="23"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B62" s="23"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B63" s="23"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B64" s="23"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B65" s="23"/>
+      <c r="C65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="31"/>
-      <c r="C61" s="7" t="s">
+      <c r="E65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="24"/>
+      <c r="C66" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="23" t="s">
+      <c r="D66" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B67" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B63" s="21"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="1" t="s">
+      <c r="E67" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B68" s="23"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F63" s="12"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B64" s="21"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="1" t="s">
+      <c r="E68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B69" s="23"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F64" s="12"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B65" s="21"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="17" t="s">
+      <c r="E69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B70" s="23"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F65" s="12"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B66" s="21"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F66" s="12"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B67" s="21"/>
-      <c r="C67" s="1" t="s">
+      <c r="E70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B71" s="23"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B72" s="23"/>
+      <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F67" s="12"/>
-    </row>
-    <row r="68" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="22"/>
-      <c r="C68" s="7" t="s">
+      <c r="E72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B73" s="23"/>
+      <c r="C73" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D73" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E73" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F73" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B69" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F69" s="13"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B70" s="21"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B71" s="21"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B72" s="21"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B73" s="21"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B74" s="21"/>
-      <c r="C74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B75" s="21"/>
-      <c r="C75" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="24" t="s">
+    <row r="74" spans="2:6" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="24"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F75" s="11" t="s">
+      <c r="F74" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="22"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B77" s="8" t="s">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B75" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="13"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B6:B14"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="B15:B23"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B24:B34"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B35:B44"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D65:D66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4. 회의/프로젝트_회의내용.xlsx
+++ b/4. 회의/프로젝트_회의내용.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="104">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,18 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>register.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BoardController.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NewsController.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,10 +275,6 @@
   </si>
   <si>
     <t>/mypage/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -361,27 +341,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StatsMapper.java(인터페이스)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>marriage_sex.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register.jsp</t>
+    <t>research_register.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>research_modify.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>research_content.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats_list.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats_area.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats_age.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_list.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_register.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_modify.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_content.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats_marriage.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼, 성별 차트 한 페이지에 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_list.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_register.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_modify.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_content.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeController.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeVO.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeMapper.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeServiceImpl.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeMapper.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_list.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypage_list.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypage_info.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,58 +686,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,8 +1046,8 @@
   </sheetPr>
   <dimension ref="A2:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1001,23 +1061,23 @@
   <sheetData>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="15"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
@@ -1033,14 +1093,14 @@
         <v>5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="29" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1052,8 +1112,8 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1063,8 +1123,8 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1074,9 +1134,9 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1085,8 +1145,8 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="25"/>
       <c r="E10" s="1" t="s">
         <v>16</v>
@@ -1094,8 +1154,8 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="23"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1103,7 +1163,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="23"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1116,11 +1176,11 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="23"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1129,19 +1189,19 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="24"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1153,8 +1213,8 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="23"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,8 +1224,8 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="23"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1175,9 +1235,9 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="23"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1186,8 +1246,8 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="23"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="25"/>
       <c r="E19" s="1" t="s">
         <v>36</v>
@@ -1195,7 +1255,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="23"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1208,33 +1268,33 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="23"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="23"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="24"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="5" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="F23" s="5"/>
     </row>
@@ -1242,56 +1302,56 @@
       <c r="B24" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="33"/>
-      <c r="C25" s="18"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="33"/>
-      <c r="C26" s="18"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="33"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="33"/>
-      <c r="C28" s="18"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="25"/>
       <c r="E28" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1304,109 +1364,111 @@
         <v>19</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="33"/>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="33"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="33"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="16"/>
+        <v>89</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="34"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B35" s="23"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B36" s="23"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B37" s="23"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="23"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="25"/>
       <c r="E38" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B39" s="23"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
@@ -1414,109 +1476,109 @@
         <v>19</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B40" s="23"/>
-      <c r="C40" s="18" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>50</v>
+      <c r="D40" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B41" s="23"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B42" s="23"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="24"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="5" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F44" s="13"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B45" s="23"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B46" s="23"/>
-      <c r="C46" s="18"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B47" s="23"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="19" t="s">
+      <c r="B47" s="21"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B48" s="23"/>
-      <c r="C48" s="18"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="25"/>
       <c r="E48" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B49" s="23"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="1" t="s">
         <v>4</v>
       </c>
@@ -1524,47 +1586,47 @@
         <v>19</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B50" s="23"/>
-      <c r="C50" s="18" t="s">
+      <c r="B50" s="21"/>
+      <c r="C50" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="18" t="s">
-        <v>58</v>
+      <c r="D50" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B51" s="23"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="1" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B52" s="23"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="1" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="24"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="5" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F53" s="5"/>
     </row>
@@ -1572,47 +1634,57 @@
       <c r="B54" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="F54" s="13"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55" s="33"/>
-      <c r="C55" s="18"/>
+      <c r="C55" s="24"/>
       <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B56" s="33"/>
-      <c r="C56" s="18"/>
+      <c r="C56" s="24"/>
       <c r="D56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="33"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="19" t="s">
+      <c r="C57" s="24"/>
+      <c r="D57" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58" s="33"/>
-      <c r="C58" s="18"/>
+      <c r="C58" s="24"/>
       <c r="D58" s="25"/>
-      <c r="E58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1623,68 +1695,70 @@
       <c r="D59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F60" s="10"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B61" s="23"/>
-      <c r="C61" s="18"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="24"/>
       <c r="D61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F61" s="12"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B62" s="23"/>
-      <c r="C62" s="18"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="24"/>
       <c r="D62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F62" s="12"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B63" s="23"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="19" t="s">
+      <c r="B63" s="21"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F63" s="12"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B64" s="23"/>
-      <c r="C64" s="18"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="24"/>
       <c r="D64" s="25"/>
       <c r="E64" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F64" s="12"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B65" s="23"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="1" t="s">
         <v>4</v>
       </c>
@@ -1692,84 +1766,84 @@
         <v>19</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F65" s="12"/>
     </row>
     <row r="66" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="24"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F67" s="13"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B68" s="23"/>
-      <c r="C68" s="18"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="24"/>
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B69" s="23"/>
-      <c r="C69" s="18"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="24"/>
       <c r="D69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B70" s="23"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="19" t="s">
+      <c r="B70" s="21"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B71" s="23"/>
-      <c r="C71" s="18"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="24"/>
       <c r="D71" s="25"/>
       <c r="E71" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B72" s="23"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
@@ -1777,34 +1851,34 @@
         <v>19</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B73" s="23"/>
-      <c r="C73" s="18" t="s">
+      <c r="B73" s="21"/>
+      <c r="C73" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="18" t="s">
-        <v>66</v>
+      <c r="D73" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="24"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
       <c r="E74" s="5" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.4">
@@ -1818,18 +1892,16 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B6:B14"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B54:B59"/>
@@ -1846,16 +1918,18 @@
     <mergeCell ref="B44:B53"/>
     <mergeCell ref="C44:C48"/>
     <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B15:B23"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="D63:D64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
